--- a/Backup/Επισκευές.xlsx
+++ b/Backup/Επισκευές.xlsx
@@ -6,14 +6,14 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="test 640" r:id="rId3" sheetId="1"/>
-    <sheet name="test 7418" r:id="rId4" sheetId="2"/>
+    <sheet name="test 7418" r:id="rId3" sheetId="1"/>
+    <sheet name="test 640" r:id="rId4" sheetId="2"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="16">
   <si>
     <t>Ημερομηνία</t>
   </si>
@@ -61,18 +61,6 @@
   </si>
   <si>
     <t>2</t>
-  </si>
-  <si>
-    <t>2020-12-01</t>
-  </si>
-  <si>
-    <t>Σπασμένος Άξονας</t>
-  </si>
-  <si>
-    <t>Άξονας</t>
-  </si>
-  <si>
-    <t>3</t>
   </si>
 </sst>
 </file>
@@ -131,7 +119,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -169,6 +157,52 @@
         <v>6</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="n">
+        <v>25000.0</v>
+      </c>
+      <c r="E2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" t="n">
+        <v>250.0</v>
+      </c>
+      <c r="G2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" t="n">
+        <v>252000.0</v>
+      </c>
+      <c r="E3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" t="n">
+        <v>255.0</v>
+      </c>
+      <c r="G3" t="s">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -176,14 +210,14 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="15.8359375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="17.8046875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="14.60546875" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="11.1484375" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="14.453125" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="13.17578125" customWidth="true" bestFit="true"/>
@@ -214,75 +248,6 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" t="n">
-        <v>25000.0</v>
-      </c>
-      <c r="E2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" t="n">
-        <v>250.0</v>
-      </c>
-      <c r="G2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" t="n">
-        <v>252000.0</v>
-      </c>
-      <c r="E3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" t="n">
-        <v>255.0</v>
-      </c>
-      <c r="G3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" t="n">
-        <v>280520.0</v>
-      </c>
-      <c r="E4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" t="n">
-        <v>150.0</v>
-      </c>
-      <c r="G4" t="s">
-        <v>19</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/Backup/Επισκευές.xlsx
+++ b/Backup/Επισκευές.xlsx
@@ -6,8 +6,8 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="test 7418" r:id="rId3" sheetId="1"/>
-    <sheet name="test 640" r:id="rId4" sheetId="2"/>
+    <sheet name="test 640" r:id="rId3" sheetId="1"/>
+    <sheet name="test 7418" r:id="rId4" sheetId="2"/>
   </sheets>
 </workbook>
 </file>
@@ -42,7 +42,7 @@
     <t>Διαφoρικό</t>
   </si>
   <si>
-    <t>Διαφορικο</t>
+    <t>Διαφορικο~1552~Λαμ~15~1~2019-10-20</t>
   </si>
   <si>
     <t>Σπίτι</t>
@@ -54,7 +54,7 @@
     <t>Test</t>
   </si>
   <si>
-    <t>sadasd</t>
+    <t>σασασασ~1553~Λαμα~16~6~2019-10-21|Φιλτρό~12345~Λαμ~110~4~2021-01-05</t>
   </si>
   <si>
     <t>Spiti</t>
@@ -119,7 +119,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -157,52 +157,6 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" t="n">
-        <v>25000.0</v>
-      </c>
-      <c r="E2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" t="n">
-        <v>250.0</v>
-      </c>
-      <c r="G2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" t="n">
-        <v>252000.0</v>
-      </c>
-      <c r="E3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" t="n">
-        <v>255.0</v>
-      </c>
-      <c r="G3" t="s">
-        <v>15</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -210,7 +164,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -218,7 +172,7 @@
   <cols>
     <col min="1" max="1" width="15.8359375" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="14.60546875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="11.1484375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="74.87890625" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="14.453125" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="13.17578125" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="6.6328125" customWidth="true" bestFit="true"/>
@@ -248,6 +202,52 @@
         <v>6</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="n">
+        <v>25000.0</v>
+      </c>
+      <c r="E2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" t="n">
+        <v>265.0</v>
+      </c>
+      <c r="G2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" t="n">
+        <v>252000.0</v>
+      </c>
+      <c r="E3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" t="n">
+        <v>255.0</v>
+      </c>
+      <c r="G3" t="s">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
